--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111755.3934690042</v>
+        <v>104111.3316149739</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426641</v>
+        <v>10494200.71426642</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3513452.894731409</v>
+        <v>3513452.894731408</v>
       </c>
     </row>
     <row r="11">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796771</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>30.7078552878321</v>
       </c>
       <c r="Y8" t="n">
-        <v>104.8891084058002</v>
+        <v>119.0839105424612</v>
       </c>
     </row>
     <row r="9">
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>48.24380842194525</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>39.3603752680919</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656961</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="W9" t="n">
-        <v>68.91203402974624</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>91.32747982963582</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.56162857616405</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>104.8891084058002</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="V10" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.0839105424617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>347.3207662723223</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>289.0012590013212</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>57.79441202389366</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>190.4536394300522</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>338.6830497639208</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>218.7572750489339</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>38.26127782904766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.09228531058704</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>168.3257202729429</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>156.7012890994284</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>60.07073011995461</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>11.45461388085721</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2083,19 +2083,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>197.631343287604</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>128.3640563204295</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>151.7621624259112</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.4798154889746</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.50252011620413</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>20.79680112926771</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>62.49116477960658</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>17.75123914303028</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>391.512055003131</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>76.22909826824741</v>
       </c>
     </row>
     <row r="27">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>57.09228531058636</v>
       </c>
       <c r="E28" t="n">
-        <v>92.89120653891784</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>157.7813688951149</v>
       </c>
       <c r="C29" t="n">
-        <v>122.9182749035808</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,13 +2952,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,7 +2967,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>28.38292210535166</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>118.0185464191268</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>156.7012890994282</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>224.2859784939135</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3192,16 +3192,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>55.88313987881816</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3246,10 +3246,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>81.94411774374035</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>290.4073451591563</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>156.7012890994284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>49.34995949258573</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>61.25797432372589</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>236.5074761794409</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>103.6013077667318</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6677553097647</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>146.3917356253862</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>333.9823526241381</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.5579069577973</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258575</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>137.6384805602076</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3982,16 +3982,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>204.0461120219747</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>187.4450760336508</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258575</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>170.3034090720313</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.3870478205536</v>
+        <v>250.1002694948337</v>
       </c>
       <c r="C8" t="n">
-        <v>250.1002694948347</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="D8" t="n">
-        <v>250.1002694948347</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="E8" t="n">
-        <v>250.1002694948347</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="F8" t="n">
-        <v>129.8134911691158</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="G8" t="n">
-        <v>129.8134911691158</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="I8" t="n">
         <v>23.57954741585575</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558057</v>
+        <v>55.41632306558044</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318076</v>
+        <v>103.1313969318072</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183104</v>
+        <v>162.3261653183099</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590944</v>
+        <v>228.1917507590936</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326599</v>
+        <v>295.1231102326587</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336446</v>
+        <v>358.3244950336431</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455695</v>
+        <v>412.2654147455679</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.772799024504</v>
+        <v>452.7727990245023</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698467</v>
+        <v>476.3356421698448</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698467</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698467</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698467</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698467</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="W8" t="n">
-        <v>476.3356421698467</v>
+        <v>401.4050834648269</v>
       </c>
       <c r="X8" t="n">
-        <v>476.3356421698467</v>
+        <v>370.3870478205521</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.3870478205536</v>
+        <v>250.1002694948337</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.788920716536</v>
+        <v>235.7620855184081</v>
       </c>
       <c r="C9" t="n">
-        <v>226.788920716536</v>
+        <v>235.7620855184081</v>
       </c>
       <c r="D9" t="n">
-        <v>226.788920716536</v>
+        <v>187.0309659002816</v>
       </c>
       <c r="E9" t="n">
-        <v>132.6685060434898</v>
+        <v>92.91055122723527</v>
       </c>
       <c r="F9" t="n">
-        <v>49.28466765965138</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="G9" t="n">
-        <v>49.28466765965138</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160453</v>
+        <v>16.43678475114687</v>
       </c>
       <c r="J9" t="n">
-        <v>67.7089975236798</v>
+        <v>134.3298561881834</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029959</v>
+        <v>166.7385335674994</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186856</v>
+        <v>210.3159997831889</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761018</v>
+        <v>261.168847440605</v>
       </c>
       <c r="N9" t="n">
-        <v>246.746759993639</v>
+        <v>313.3676186581419</v>
       </c>
       <c r="O9" t="n">
-        <v>294.498437799972</v>
+        <v>361.1192964644748</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018344</v>
+        <v>399.444227766337</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328096</v>
+        <v>425.0634293973121</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698467</v>
+        <v>476.3356421698448</v>
       </c>
       <c r="S9" t="n">
-        <v>416.6838142238168</v>
+        <v>476.3356421698448</v>
       </c>
       <c r="T9" t="n">
-        <v>416.6838142238168</v>
+        <v>356.0488638441265</v>
       </c>
       <c r="U9" t="n">
-        <v>416.6838142238168</v>
+        <v>356.0488638441265</v>
       </c>
       <c r="V9" t="n">
-        <v>296.3970358980979</v>
+        <v>235.7620855184081</v>
       </c>
       <c r="W9" t="n">
-        <v>226.788920716536</v>
+        <v>235.7620855184081</v>
       </c>
       <c r="X9" t="n">
-        <v>226.788920716536</v>
+        <v>235.7620855184081</v>
       </c>
       <c r="Y9" t="n">
-        <v>226.788920716536</v>
+        <v>235.7620855184081</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396934</v>
+        <v>222.0634707950101</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396934</v>
+        <v>222.0634707950101</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396934</v>
+        <v>101.7766924692917</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396934</v>
+        <v>101.7766924692917</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396934</v>
+        <v>9.526712843396897</v>
       </c>
       <c r="J10" t="n">
-        <v>108.0024003011151</v>
+        <v>21.42271513642515</v>
       </c>
       <c r="K10" t="n">
-        <v>145.0250750708369</v>
+        <v>40.97150121137707</v>
       </c>
       <c r="L10" t="n">
-        <v>170.0407908352943</v>
+        <v>88.21660638161904</v>
       </c>
       <c r="M10" t="n">
-        <v>196.4163556467495</v>
+        <v>206.1096778186556</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837865</v>
+        <v>324.0027492556922</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360052</v>
+        <v>441.8958206927288</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328096</v>
+        <v>462.2461375895332</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698467</v>
+        <v>476.3356421698448</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698467</v>
+        <v>462.6370274464468</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698467</v>
+        <v>462.6370274464468</v>
       </c>
       <c r="T10" t="n">
-        <v>476.3356421698467</v>
+        <v>462.6370274464468</v>
       </c>
       <c r="U10" t="n">
-        <v>370.3870478205536</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="V10" t="n">
-        <v>250.1002694948347</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="W10" t="n">
-        <v>250.1002694948347</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="X10" t="n">
-        <v>129.8134911691158</v>
+        <v>342.3502491207284</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396934</v>
+        <v>342.3502491207284</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.1270151866529</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="C11" t="n">
-        <v>339.1270151866529</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D11" t="n">
-        <v>339.1270151866529</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792597</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371907</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715607</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="12">
@@ -5111,19 +5111,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.9288547996787</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C13" t="n">
-        <v>813.3671432829036</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D13" t="n">
-        <v>647.4891504844263</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7311467351636</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>301.0240926969198</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,13 +5205,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.331138940781</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O13" t="n">
         <v>1657.620488527956</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.514407000715</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1650.558898871145</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W13" t="n">
-        <v>1650.558898871145</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X13" t="n">
-        <v>1405.167144204558</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y13" t="n">
-        <v>1177.747473518666</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>908.8487259814518</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="C14" t="n">
-        <v>908.8487259814518</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="D14" t="n">
-        <v>908.8487259814518</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
         <v>805.4408022867025</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2098.894263168661</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>1736.277313102488</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>1736.277313102488</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X14" t="n">
-        <v>1317.134849681798</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="Y14" t="n">
-        <v>908.8487259814518</v>
+        <v>1486.402314586986</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.4127897239429</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C16" t="n">
-        <v>558.4127897239429</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D16" t="n">
         <v>558.4127897239429</v>
@@ -5427,34 +5427,34 @@
         <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>358.0754347909403</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2302.658602386538</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2060.411378289944</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1782.024746338687</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1495.069238209118</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1223.042833795409</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X16" t="n">
-        <v>977.6510791288217</v>
+        <v>1162.919920107963</v>
       </c>
       <c r="Y16" t="n">
-        <v>750.2314084429299</v>
+        <v>935.5002494220716</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1782.900983623584</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C17" t="n">
-        <v>1344.758510807007</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D17" t="n">
-        <v>908.8487259814518</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E17" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447736</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X17" t="n">
-        <v>1941.185114027047</v>
+        <v>1025.021346643504</v>
       </c>
       <c r="Y17" t="n">
-        <v>1782.900983623584</v>
+        <v>616.7352229431573</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,19 +5585,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>555.4042596134699</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C19" t="n">
-        <v>382.8425480966948</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>216.9645552982175</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895472</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>733.422710770687</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498297</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2299.650072276065</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2057.402848179471</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1779.016216228214</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1492.060708098645</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
-        <v>1220.034303684936</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X19" t="n">
-        <v>974.6425490183487</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y19" t="n">
-        <v>747.222878332457</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1120.886428673515</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C20" t="n">
-        <v>682.7439558569386</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>246.8341710313831</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>246.8341710313831</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>246.8341710313831</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895472</v>
@@ -5752,7 +5752,7 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228015</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W20" t="n">
-        <v>1955.472122858769</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X20" t="n">
-        <v>1955.472122858769</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.185999158423</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
-        <v>858.9930882810423</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K21" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N21" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P21" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q21" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R21" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S21" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T21" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V21" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>561.2164974914551</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6547859746801</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6547859746801</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E22" t="n">
         <v>388.6547859746801</v>
@@ -5913,22 +5913,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>413.3628026016838</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>997.5438780199984</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N22" t="n">
-        <v>1567.301592981533</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O22" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
-        <v>2205.505779732759</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1794.985437366909</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1522.959032953201</v>
       </c>
       <c r="X22" t="n">
-        <v>890.893515694255</v>
+        <v>1277.567278286613</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.0351162104423</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>485.3490243655314</v>
+        <v>885.0319878285603</v>
       </c>
       <c r="C23" t="n">
-        <v>47.20655154895473</v>
+        <v>885.0319878285603</v>
       </c>
       <c r="D23" t="n">
-        <v>47.20655154895473</v>
+        <v>885.0319878285603</v>
       </c>
       <c r="E23" t="n">
-        <v>47.20655154895473</v>
+        <v>451.2572429868555</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T23" t="n">
-        <v>2339.320707620193</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U23" t="n">
-        <v>2080.250016141707</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V23" t="n">
-        <v>1717.633066075534</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W23" t="n">
-        <v>1312.777611486567</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X23" t="n">
-        <v>893.635148065878</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y23" t="n">
-        <v>485.3490243655314</v>
+        <v>885.0319878285603</v>
       </c>
     </row>
     <row r="24">
@@ -6062,7 +6062,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
         <v>81.42328772043084</v>
@@ -6071,22 +6071,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>858.3289888817349</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C25" t="n">
-        <v>685.7672773649598</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
-        <v>519.8892845664825</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E25" t="n">
-        <v>350.1312808172198</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F25" t="n">
-        <v>173.424226778976</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G25" t="n">
-        <v>173.424226778976</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092379</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P25" t="n">
         <v>2274.089213540313</v>
@@ -6171,28 +6171,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>2081.940945496479</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.98543736691</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W25" t="n">
-        <v>1522.959032953201</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.567278286614</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.147607600722</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>442.6732737743396</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="C26" t="n">
-        <v>442.6732737743396</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D26" t="n">
-        <v>47.20655154895472</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895472</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6265,13 +6265,13 @@
         <v>2101.25688596925</v>
       </c>
       <c r="W26" t="n">
-        <v>1696.401431380283</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="X26" t="n">
-        <v>1277.258967959594</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="Y26" t="n">
-        <v>868.9728442592474</v>
+        <v>2024.257796809404</v>
       </c>
     </row>
     <row r="27">
@@ -6302,10 +6302,10 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
         <v>335.7952991210683</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C28" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D28" t="n">
-        <v>305.7772334908988</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E28" t="n">
-        <v>211.9477319364363</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F28" t="n">
         <v>211.9477319364363</v>
@@ -6390,7 +6390,7 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>828.1746199579899</v>
       </c>
       <c r="M28" t="n">
         <v>1412.355695376305</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>890.893515694255</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1738.639935903077</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>1614.480062263097</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>1178.570277437541</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>744.7955325958366</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V29" t="n">
-        <v>1738.639935903077</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W29" t="n">
-        <v>1738.639935903077</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X29" t="n">
-        <v>1738.639935903077</v>
+        <v>1284.092038121989</v>
       </c>
       <c r="Y29" t="n">
-        <v>1738.639935903077</v>
+        <v>875.8059144216428</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6560,7 +6560,7 @@
         <v>1298.314267034638</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,58 +6597,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>859.4385509106165</v>
+        <v>724.29078252242</v>
       </c>
       <c r="C31" t="n">
-        <v>686.8768393938415</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D31" t="n">
-        <v>520.9988465953642</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E31" t="n">
-        <v>520.9988465953642</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F31" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K31" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092383</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T31" t="n">
         <v>2118.080353351143</v>
@@ -6657,16 +6657,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W31" t="n">
-        <v>1524.068594982083</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X31" t="n">
-        <v>1278.676840315495</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.257169629604</v>
+        <v>916.1094012414071</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>446.7092428694776</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="C32" t="n">
-        <v>446.7092428694776</v>
+        <v>1503.04264121047</v>
       </c>
       <c r="D32" t="n">
-        <v>446.7092428694776</v>
+        <v>1067.132856384915</v>
       </c>
       <c r="E32" t="n">
-        <v>446.7092428694776</v>
+        <v>633.3581115432098</v>
       </c>
       <c r="F32" t="n">
-        <v>446.7092428694776</v>
+        <v>205.4906819524176</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6724,28 +6724,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W32" t="n">
-        <v>1081.54685999802</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="X32" t="n">
-        <v>854.9953665698242</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y32" t="n">
-        <v>446.7092428694776</v>
+        <v>1941.185114027047</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M33" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P33" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.947661807679</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G34" t="n">
         <v>242.6458987333908</v>
@@ -6855,7 +6855,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
@@ -6864,16 +6864,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1937.236374968567</v>
       </c>
       <c r="P34" t="n">
         <v>2105.896438675981</v>
@@ -6882,28 +6882,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R34" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1839.693721399886</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>1044.043600532766</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>1044.043600532766</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895472</v>
@@ -6943,7 +6943,7 @@
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867016</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.185114027047</v>
+        <v>1470.343171017673</v>
       </c>
       <c r="Y35" t="n">
-        <v>1782.900983623584</v>
+        <v>1470.343171017673</v>
       </c>
     </row>
     <row r="36">
@@ -7013,16 +7013,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M36" t="n">
         <v>803.387703298788</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851411</v>
+        <v>915.5847871853875</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268366</v>
+        <v>743.0230756686125</v>
       </c>
       <c r="D37" t="n">
-        <v>443.520053268366</v>
+        <v>577.1450828701352</v>
       </c>
       <c r="E37" t="n">
-        <v>273.7620495191033</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F37" t="n">
-        <v>97.0549954808595</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909393</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369939</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M37" t="n">
-        <v>897.9345369632204</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1467.692251924754</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1911.77707311424</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1624.821564984671</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1352.795160570962</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.32005419002</v>
+        <v>1107.403405904375</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041283</v>
+        <v>1107.403405904375</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1429.87680123247</v>
+        <v>913.2164539563237</v>
       </c>
       <c r="C38" t="n">
-        <v>991.7343284158937</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D38" t="n">
-        <v>555.8245435903382</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E38" t="n">
-        <v>555.8245435903382</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>555.8245435903382</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K38" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
@@ -7213,13 +7213,13 @@
         <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>1849.01926465316</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X38" t="n">
-        <v>1429.87680123247</v>
+        <v>1339.516024441231</v>
       </c>
       <c r="Y38" t="n">
-        <v>1429.87680123247</v>
+        <v>1339.516024441231</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.0817647851411</v>
+        <v>890.893515694255</v>
       </c>
       <c r="C40" t="n">
-        <v>616.0817647851411</v>
+        <v>890.893515694255</v>
       </c>
       <c r="D40" t="n">
-        <v>616.0817647851411</v>
+        <v>725.0155228957777</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>555.2575191465151</v>
       </c>
       <c r="F40" t="n">
         <v>407.3870791208724</v>
@@ -7338,16 +7338,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>744.9929992049549</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M40" t="n">
-        <v>875.5973915434844</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N40" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
-        <v>1982.790237078562</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540313</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.32005419002</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041283</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>485.3490243655314</v>
+        <v>1682.114422548561</v>
       </c>
       <c r="C41" t="n">
-        <v>47.20655154895472</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>47.20655154895472</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
         <v>47.20655154895472</v>
@@ -7411,22 +7411,22 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7450,13 +7450,13 @@
         <v>2101.25688596925</v>
       </c>
       <c r="W41" t="n">
-        <v>1739.077181971475</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="X41" t="n">
-        <v>1319.934718550786</v>
+        <v>1682.114422548561</v>
       </c>
       <c r="Y41" t="n">
-        <v>911.6485948504392</v>
+        <v>1682.114422548561</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E43" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G43" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909392</v>
       </c>
       <c r="L43" t="n">
-        <v>744.9929992049549</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M43" t="n">
-        <v>1329.174074623269</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N43" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O43" t="n">
         <v>2173.320157362629</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1650.558898871144</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1346.991198798029</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="C44" t="n">
-        <v>908.8487259814518</v>
+        <v>1088.726211555614</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>652.8164267300581</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>652.8164267300581</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I44" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2148.55632591685</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>1889.485634438364</v>
       </c>
       <c r="V44" t="n">
-        <v>2170.989116807685</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W44" t="n">
-        <v>1766.133662218718</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="X44" t="n">
-        <v>1346.991198798029</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="Y44" t="n">
-        <v>1346.991198798029</v>
+        <v>1526.86868437219</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7718,13 +7718,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851411</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268366</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364612</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895472</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L46" t="n">
-        <v>588.0160255186807</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M46" t="n">
-        <v>718.6204178572102</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N46" t="n">
-        <v>1288.378132818744</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O46" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>2043.877393424667</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.32005419002</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041283</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.309872867522103</v>
+        <v>99.93061208465484</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946641</v>
+        <v>39.20322876385166</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.6503926209796</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>22.45392869271183</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>92.44192588442576</v>
       </c>
       <c r="N10" t="n">
-        <v>93.07541273183055</v>
+        <v>93.0754127318302</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698794</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340661</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>177.1920849464595</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>141.4680432173438</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>69.27619576520647</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825018</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.27619576520601</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475392</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -10038,10 +10038,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>141.468043217344</v>
       </c>
       <c r="M28" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042872</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173438</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>68.57677528255635</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>69.27619576520544</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>444.99699715929</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,7 +10998,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>192.4544649334016</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11220,19 +11220,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>156.730423204286</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371567</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>158.204531747539</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>263.8716243249362</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>458.1582657371572</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11472,7 +11472,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23023,7 +23023,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>314.6771375459492</v>
+        <v>314.6771375459497</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23032,13 +23032,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524226</v>
+        <v>304.5048447524231</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>163.2745696021302</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796769</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
@@ -23086,10 +23086,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>384.2431834986503</v>
       </c>
       <c r="Y8" t="n">
-        <v>299.3141540575429</v>
+        <v>285.1193519208819</v>
       </c>
     </row>
     <row r="9">
@@ -23105,7 +23105,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>45.89557754296703</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23117,7 +23117,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
-        <v>128.0597233353587</v>
+        <v>8.975812792897472</v>
       </c>
       <c r="U9" t="n">
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615896</v>
+        <v>78.04243221615943</v>
       </c>
       <c r="W9" t="n">
-        <v>114.5574926943917</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23178,19 +23178,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>70.81652198933602</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>45.13530232803132</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>83.61250366822551</v>
       </c>
       <c r="G10" t="n">
         <v>163.7654023385416</v>
@@ -23199,7 +23199,7 @@
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742788</v>
+        <v>82.66219243742789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616401</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>154.6870177308997</v>
@@ -23235,19 +23235,19 @@
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>170.7502917943952</v>
+        <v>156.5554896577342</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058121</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>123.85392657746</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>106.0615634365711</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>86.4402818160886</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>140.4357383919666</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.2993565597131</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>93.63231361822167</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>90.75394762936696</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.72270951476725</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>151.6391547027496</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>85.88998780022077</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>253.7108545071158</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>247.5019733639147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.0937685836068</v>
@@ -23910,7 +23910,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.91154299085321</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>257.8515264887142</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>197.8763211197136</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24031,13 +24031,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>275.8392061429136</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>38.13827010588602</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>88.66565849005821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,19 +24208,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>419.0862351786802</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>188.8567378863112</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>68.52945523487068</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>257.8515264887142</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>40.03863197416894</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>327.9741641950957</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>107.1269275599062</v>
       </c>
       <c r="E28" t="n">
-        <v>75.16921717285227</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>264.2552058849438</v>
       </c>
       <c r="C29" t="n">
-        <v>310.8427731848302</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811444</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>240.9232182642197</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>107.126927559906</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>238.8063753078894</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>190.6650602925689</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>112.177283832952</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>187.362022625831</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>141.1433418181437</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>247.5019733639147</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>113.743809091021</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>214.3447913080186</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>159.0001882278767</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>311.3497310197505</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>136.3926684020054</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>28.54824787247512</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>99.7786954642728</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
@@ -25690,13 +25690,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>42.24899308527972</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>114.8692533779068</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>105.299356559714</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>219.5426432729096</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25918,19 +25918,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>171.5457045318609</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>69.52134278359617</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>89851.38458823405</v>
+        <v>89851.38458823372</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395340.4481454216</v>
+        <v>395340.4481454215</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>395340.4481454214</v>
+        <v>395340.4481454215</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>395340.4481454216</v>
+        <v>395340.4481454215</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>395340.4481454215</v>
+        <v>395340.4481454214</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>395340.4481454216</v>
+        <v>395340.4481454215</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395340.4481454214</v>
+        <v>395340.4481454216</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.29078646985</v>
+        <v>38163.2907864697</v>
       </c>
       <c r="E2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="F2" t="n">
         <v>173027.328430899</v>
@@ -26340,7 +26340,7 @@
         <v>173027.328430899</v>
       </c>
       <c r="K2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="L2" t="n">
         <v>173027.328430899</v>
@@ -26355,7 +26355,7 @@
         <v>173027.328430899</v>
       </c>
       <c r="P2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730586</v>
+        <v>117708.4675730582</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180435</v>
+        <v>439858.2450180438</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310214</v>
+        <v>30139.06600310205</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.5815597478</v>
+        <v>117374.5815597479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6689.286665756894</v>
+        <v>6689.286665756869</v>
       </c>
       <c r="E4" t="n">
         <v>18294.04639895361</v>
@@ -26444,7 +26444,7 @@
         <v>18294.04639895361</v>
       </c>
       <c r="K4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="L4" t="n">
         <v>18294.04639895361</v>
@@ -26459,7 +26459,7 @@
         <v>18294.0463989536</v>
       </c>
       <c r="P4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239242</v>
+        <v>42922.56227239239</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26496,7 +26496,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963781</v>
@@ -26511,7 +26511,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-129157.0257247381</v>
+        <v>-130323.9245208889</v>
       </c>
       <c r="E6" t="n">
-        <v>-331176.0441957358</v>
+        <v>-331729.9246389582</v>
       </c>
       <c r="F6" t="n">
-        <v>108682.2008223076</v>
+        <v>108128.3203790857</v>
       </c>
       <c r="G6" t="n">
-        <v>108682.2008223076</v>
+        <v>108128.3203790856</v>
       </c>
       <c r="H6" t="n">
-        <v>108682.2008223076</v>
+        <v>108128.3203790856</v>
       </c>
       <c r="I6" t="n">
-        <v>108682.2008223076</v>
+        <v>108128.3203790856</v>
       </c>
       <c r="J6" t="n">
-        <v>108682.2008223076</v>
+        <v>108128.3203790856</v>
       </c>
       <c r="K6" t="n">
-        <v>108682.2008223077</v>
+        <v>108128.3203790856</v>
       </c>
       <c r="L6" t="n">
-        <v>78543.13481920544</v>
+        <v>77989.25437598361</v>
       </c>
       <c r="M6" t="n">
-        <v>-8692.380737440188</v>
+        <v>-9246.261180662232</v>
       </c>
       <c r="N6" t="n">
-        <v>108682.2008223076</v>
+        <v>108128.3203790857</v>
       </c>
       <c r="O6" t="n">
-        <v>108682.2008223076</v>
+        <v>108128.3203790857</v>
       </c>
       <c r="P6" t="n">
-        <v>108682.2008223076</v>
+        <v>108128.3203790857</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480536</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26776,10 +26776,10 @@
         <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,31 +26795,31 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="J4" t="n">
         <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
         <v>590.081894361934</v>
@@ -26831,7 +26831,7 @@
         <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480536</v>
+        <v>94.25048217480497</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184158</v>
+        <v>372.4514459184161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194726</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424616</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194724</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194726</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529861</v>
+        <v>0.3788964107529845</v>
       </c>
       <c r="H8" t="n">
-        <v>3.88037286662402</v>
+        <v>3.880372866624004</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555451</v>
+        <v>14.60740387555445</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214628</v>
+        <v>32.15835924214615</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932019</v>
+        <v>48.19704430931999</v>
       </c>
       <c r="L8" t="n">
-        <v>59.7926953399019</v>
+        <v>59.79269533990166</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463032</v>
+        <v>66.53089438463005</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168224</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725723</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679288</v>
+        <v>54.48577748679266</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670155</v>
+        <v>40.91654977670139</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196228</v>
+        <v>23.80085166196218</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033679</v>
+        <v>8.634101960033643</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071197</v>
+        <v>1.658619038071191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023888</v>
+        <v>0.03031171286023876</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.202727452225053</v>
+        <v>0.2027274522250522</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857749</v>
+        <v>1.957920393857741</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888888</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780644</v>
+        <v>19.15329845780636</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688499</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211075</v>
+        <v>44.01764264211057</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526891</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286588</v>
+        <v>52.72603153286566</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619496</v>
+        <v>48.23401798619476</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006298</v>
+        <v>38.71205182006283</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542958</v>
+        <v>25.87798144542947</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5868851477976</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531136</v>
+        <v>3.765573509531121</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457178</v>
+        <v>0.8171338973457145</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322718</v>
+        <v>0.01333733238322712</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889932</v>
+        <v>0.1699598858889926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540323</v>
+        <v>1.511097894540317</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643544</v>
+        <v>5.111157295643523</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235182</v>
+        <v>12.01616393235177</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055758</v>
+        <v>19.74624856055749</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207815</v>
+        <v>25.26839976207804</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803555</v>
+        <v>26.64198465803544</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063114</v>
+        <v>26.00849781063103</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547335</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333786</v>
+        <v>20.55587565333778</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839561</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517822</v>
+        <v>7.642014505517791</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083636</v>
+        <v>2.961937284083624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075165</v>
+        <v>0.7261922397075135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308733</v>
+        <v>0.009270539230308695</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32551,7 +32551,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K21" t="n">
         <v>162.099668741586</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -33280,10 +33280,10 @@
         <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562336</v>
@@ -33663,7 +33663,7 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766668</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -33733,7 +33733,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562336</v>
@@ -33745,7 +33745,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
@@ -33973,7 +33973,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642311</v>
+        <v>14.19478239642305</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214628</v>
+        <v>32.15835924214615</v>
       </c>
       <c r="K8" t="n">
-        <v>48.1970443093202</v>
+        <v>48.19704430932001</v>
       </c>
       <c r="L8" t="n">
-        <v>59.7926953399019</v>
+        <v>59.79269533990166</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463033</v>
+        <v>66.53089438463005</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168226</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725725</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679287</v>
+        <v>54.48577748679264</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670157</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196227</v>
+        <v>23.80085166196221</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.3068132002097</v>
+        <v>6.979870613888862</v>
       </c>
       <c r="J9" t="n">
-        <v>25.46317132532855</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="K9" t="n">
-        <v>32.736037756885</v>
+        <v>32.73603775688485</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211076</v>
+        <v>44.01764264211059</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852689</v>
+        <v>51.3665127852687</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286587</v>
+        <v>52.72603153286565</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619497</v>
+        <v>48.23401798619477</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006298</v>
+        <v>38.71205182006281</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542955</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424617</v>
+        <v>51.7901139116492</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143248</v>
+        <v>12.01616393235177</v>
       </c>
       <c r="K10" t="n">
-        <v>37.39664118153718</v>
+        <v>19.7462485605575</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207816</v>
+        <v>47.72232845478987</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803554</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="N10" t="n">
-        <v>119.0839105424617</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="O10" t="n">
-        <v>24.02305732547336</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333786</v>
+        <v>20.55587565333781</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424617</v>
+        <v>14.23182280839558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447063</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>309.1157135712367</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221537</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062835</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>167.0540751263764</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,10 +35898,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562351</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>170.8810658749147</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36214,16 +36214,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>139.7481869072822</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027014</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,10 +36372,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36457,7 +36457,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>277.1599674523491</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36539,7 +36539,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36758,10 +36758,10 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>266.5900650540085</v>
       </c>
       <c r="M28" t="n">
-        <v>309.1157135712365</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N28" t="n">
         <v>128.7867795998884</v>
@@ -36840,7 +36840,7 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
         <v>162.099668741586</v>
@@ -36928,10 +36928,10 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409517</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>260.4234789221537</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027014</v>
@@ -37068,13 +37068,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916796</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562336</v>
@@ -37153,7 +37153,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,7 +37168,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002372</v>
       </c>
       <c r="R33" t="n">
         <v>62.32672164233622</v>
@@ -37232,22 +37232,22 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>170.3637007145596</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027014</v>
@@ -37305,22 +37305,22 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766668</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
         <v>269.7982739184536</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562336</v>
@@ -37390,10 +37390,10 @@
         <v>162.099668741586</v>
       </c>
       <c r="L36" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N36" t="n">
         <v>261.0845059811313</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>167.0540751263753</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>576.9206257840672</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027014</v>
@@ -37542,13 +37542,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37621,13 +37621,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K39" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P40" t="n">
-        <v>294.2413903654051</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,7 +37797,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>254.5083025654559</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619339</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
-        <v>277.1599674523491</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P43" t="n">
         <v>101.7869254320035</v>
@@ -37961,7 +37961,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
-        <v>388.9936461616007</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
         <v>70.4719911420766</v>
